--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1528639.635608421</v>
+        <v>1632819.270059493</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283172</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>107.0120291964086</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -713,10 +715,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>272.2741925178116</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>79.74890922054405</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>78.44407739678182</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>271.8722534420415</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>298.7307299422358</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>6.380068175848154</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>90.43240609179597</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1114,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>216.1997909845832</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1187,16 +1189,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>34.74121858533944</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>71.56229046895236</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1339,25 +1341,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>73.11246331531268</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F13" t="n">
-        <v>28.75188085812101</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722639</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1658,7 +1660,7 @@
         <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>135.3135037226598</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1816,22 +1818,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>211.1474991249041</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176204</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>26.07046444232094</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634816</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>1.799772605716619</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>245.8640357413624</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>83.06560892428251</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2564,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>14.75529838241519</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
-        <v>120.1447214650597</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790575</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>19.91555826189198</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174149</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>130.4114987159134</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>119.6383426943795</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>20.13408744447803</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3907,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>98.20549876776242</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4147,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>107.4021082756242</v>
+        <v>54.32649042089751</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4325,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2734.312968633809</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2381.544313363695</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2008.078555102614</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>759.689087308229</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4516,22 +4518,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1566.541764857916</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1566.541764857916</v>
       </c>
       <c r="W4" t="n">
-        <v>1169.327103036486</v>
+        <v>1277.124594820955</v>
       </c>
       <c r="X4" t="n">
-        <v>941.3375521384687</v>
+        <v>1049.135043922938</v>
       </c>
       <c r="Y4" t="n">
-        <v>941.3375521384687</v>
+        <v>828.3424647794079</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1865.035106955553</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4565,19 +4567,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939509</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796418</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>2251.634947019675</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4643,16 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>531.7821255545683</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>362.8459426266614</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1920.850034779555</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1920.850034779555</v>
+        <v>1746.118226106833</v>
       </c>
       <c r="T7" t="n">
-        <v>1699.083419349081</v>
+        <v>1524.351610676359</v>
       </c>
       <c r="U7" t="n">
-        <v>1409.980552474725</v>
+        <v>1235.248743802003</v>
       </c>
       <c r="V7" t="n">
-        <v>1155.296064268838</v>
+        <v>980.5642555961158</v>
       </c>
       <c r="W7" t="n">
-        <v>865.8788942318776</v>
+        <v>980.5642555961158</v>
       </c>
       <c r="X7" t="n">
-        <v>637.8893433338602</v>
+        <v>752.5747046980985</v>
       </c>
       <c r="Y7" t="n">
-        <v>417.0967641903301</v>
+        <v>531.7821255545683</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1450.534597785713</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>3084.535934008201</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2731.767278738087</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>849.3060382064467</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C10" t="n">
-        <v>680.3698552785398</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D10" t="n">
-        <v>530.2532158662041</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>382.340122283811</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1350.160618196603</v>
       </c>
       <c r="V10" t="n">
-        <v>1548.361223971664</v>
+        <v>1095.476129990716</v>
       </c>
       <c r="W10" t="n">
-        <v>1258.944053934704</v>
+        <v>1095.476129990716</v>
       </c>
       <c r="X10" t="n">
-        <v>1030.954503036686</v>
+        <v>867.4865790926983</v>
       </c>
       <c r="Y10" t="n">
-        <v>1030.954503036686</v>
+        <v>646.6939999491682</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5032,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,46 +5044,46 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616111</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400721</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400721</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>513.8536007400721</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,10 +5281,10 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,37 +5293,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5349,19 +5351,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>589.1422692637309</v>
       </c>
       <c r="M15" t="n">
         <v>1186.520756890283</v>
@@ -5373,10 +5375,10 @@
         <v>2366.028450684177</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138493</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>916.2946447138493</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5440,46 +5442,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797817</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910817</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570825</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.08939327981</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853369</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580269</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832671</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487575</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510516</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854714</v>
       </c>
       <c r="V16" t="n">
-        <v>1942.378057281681</v>
+        <v>1433.701365648827</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611867</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138493</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138493</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,19 +5503,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5525,10 +5527,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5546,7 +5548,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5592,22 +5594,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2222.001901828446</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5680,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,34 +5770,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5917,43 +5919,43 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L24" t="n">
-        <v>2490.32382148308</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="M24" t="n">
-        <v>3087.702309109632</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N24" t="n">
-        <v>3715.300272664238</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>4267.210002903525</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6154,7 +6156,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570818</v>
@@ -6163,13 +6165,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487568</v>
@@ -6187,10 +6189,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6221,19 +6223,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6242,7 +6244,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6254,10 +6256,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>2817.800993781635</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>3445.398957336242</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>3997.308687575529</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558406</v>
+        <v>2962.420792735044</v>
       </c>
       <c r="C28" t="n">
-        <v>2588.787486630499</v>
+        <v>2793.484609807138</v>
       </c>
       <c r="D28" t="n">
-        <v>2438.670847218163</v>
+        <v>2793.484609807138</v>
       </c>
       <c r="E28" t="n">
-        <v>2337.686731866305</v>
+        <v>2793.484609807138</v>
       </c>
       <c r="F28" t="n">
-        <v>2337.686731866305</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866305</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H28" t="n">
         <v>2337.686731866305</v>
@@ -6412,22 +6414,22 @@
         <v>4440.932614305901</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>4426.028272505481</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.25592267304</v>
+        <v>4136.953045849679</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467153</v>
+        <v>3882.268557643793</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430193</v>
+        <v>3592.851387606832</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>3364.861836708814</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>3144.069257565284</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,34 +6478,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021787</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1468.439756756786</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2020.349486996073</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.972636491141</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>2804.65264778894</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>2635.716464861033</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>2485.599825448698</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2325.6047790701</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>2106.003314093041</v>
+        <v>4268.260127559377</v>
       </c>
       <c r="U31" t="n">
-        <v>2106.003314093041</v>
+        <v>3979.184900903575</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>3724.500412697688</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>3435.083242660728</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>3207.09369176271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>2986.30111261918</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>738.7889117913853</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>1366.386875345992</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>1918.296605585279</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2341.919755080347</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2824.769373306003</v>
+        <v>2804.652647788942</v>
       </c>
       <c r="C34" t="n">
-        <v>2655.833190378096</v>
+        <v>2635.716464861035</v>
       </c>
       <c r="D34" t="n">
-        <v>2505.71655096576</v>
+        <v>2485.599825448699</v>
       </c>
       <c r="E34" t="n">
-        <v>2357.803457383367</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866306</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.92275029663</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822169</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998109</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729144</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389152</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098137</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671696</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650997</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>4487.861592536437</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>4268.260127559379</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>3979.184900903577</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>3724.50041269769</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.19996817779</v>
+        <v>3435.083242660729</v>
       </c>
       <c r="X34" t="n">
-        <v>3227.210417279773</v>
+        <v>3207.093691762712</v>
       </c>
       <c r="Y34" t="n">
-        <v>3006.417838136243</v>
+        <v>2986.301112619182</v>
       </c>
     </row>
     <row r="35">
@@ -6923,55 +6925,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7008,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622266</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343197</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219839</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395908</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>449.3439841395908</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7102,7 +7104,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570818</v>
@@ -7111,34 +7113,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235172</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258113</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602311</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1500.747069396424</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934014</v>
+        <v>1211.329899359463</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>1090.48308855706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="38">
@@ -7163,22 +7165,22 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>801.6918836311999</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>632.755700703293</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>632.755700703293</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8426071208999</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>337.9526596229895</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7339,7 +7341,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7348,34 +7350,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>983.3403484614396</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7427,22 +7429,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.043492616111</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282754</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458823</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7576,7 +7578,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7585,7 +7587,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
@@ -7594,25 +7596,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,61 +7636,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192474</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L45" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190824</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098242</v>
+        <v>762.5477693179095</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819173</v>
+        <v>593.6115863900026</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695815</v>
+        <v>443.4949469776668</v>
       </c>
       <c r="E46" t="n">
-        <v>516.3896878871884</v>
+        <v>295.5818533952737</v>
       </c>
       <c r="F46" t="n">
-        <v>369.499740389278</v>
+        <v>148.6919058973633</v>
       </c>
       <c r="G46" t="n">
-        <v>202.303641104158</v>
+        <v>148.6919058973633</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7813,7 +7815,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570818</v>
@@ -7822,7 +7824,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.963083580261</v>
@@ -7831,25 +7833,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924459</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718572</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783594</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640064</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
   </sheetData>
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F13" t="n">
-        <v>116.6691671648102</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>13.30196929555251</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23704,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>75.37549921168687</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>260.4525338942701</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>146.8157004124957</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>40.32043864788176</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409392984</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>202.6501519448731</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>60.88156453658485</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>46.45968844823076</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>125.5054897610393</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25093,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.45968844823037</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>35.11263957635549</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>106.0713126946577</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>145.3900508477908</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>120.3791545843324</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>32.89260457059963</v>
+        <v>85.96822242532636</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.194994241</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.194994241</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="16">
@@ -26314,19 +26316,19 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985041</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="H2" t="n">
         <v>524645.289798504</v>
@@ -26335,22 +26337,22 @@
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985042</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
         <v>524645.2897985041</v>
       </c>
       <c r="M2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="N2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="O2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
         <v>524645.2897985039</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.548981789615936e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316946</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26436,7 +26438,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181808</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26479,16 +26481,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26497,19 +26499,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-994575.490830371</v>
+        <v>-994575.4908303709</v>
       </c>
       <c r="C6" t="n">
-        <v>334169.2548972215</v>
+        <v>334169.2548972216</v>
       </c>
       <c r="D6" t="n">
         <v>334169.2548972216</v>
       </c>
       <c r="E6" t="n">
-        <v>85723.37798542297</v>
+        <v>85723.3779854235</v>
       </c>
       <c r="F6" t="n">
-        <v>411135.8397927788</v>
+        <v>411135.8397927782</v>
       </c>
       <c r="G6" t="n">
         <v>411135.8397927789</v>
@@ -26540,25 +26542,25 @@
         <v>411135.8397927787</v>
       </c>
       <c r="I6" t="n">
-        <v>411135.8397927788</v>
+        <v>411135.8397927787</v>
       </c>
       <c r="J6" t="n">
-        <v>193604.6373955011</v>
+        <v>193604.6373955015</v>
       </c>
       <c r="K6" t="n">
+        <v>411135.8397927787</v>
+      </c>
+      <c r="L6" t="n">
+        <v>411135.8397927787</v>
+      </c>
+      <c r="M6" t="n">
+        <v>326080.8118572669</v>
+      </c>
+      <c r="N6" t="n">
         <v>411135.8397927786</v>
       </c>
-      <c r="L6" t="n">
-        <v>411135.8397927788</v>
-      </c>
-      <c r="M6" t="n">
-        <v>326080.8118572666</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>411135.8397927787</v>
-      </c>
-      <c r="O6" t="n">
-        <v>411135.8397927786</v>
       </c>
       <c r="P6" t="n">
         <v>411135.8397927786</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26805,19 +26807,19 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>275.721812467072</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27433,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>55.47806595232333</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>87.49791187808378</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27590,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>207.767760808831</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>93.40063832896601</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>87.50720871381776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,7 +27791,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>82.55208449419918</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>99.33661923964593</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>165.7305790876786</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>293.0110398847955</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>73.85875755397889</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>213.0993748903002</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28333,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.656846076092861e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28512,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>6.97563488453549e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28798,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-5.76821117737509e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28995,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -30046,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-1.244302867549568e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30186,7 +30188,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>6.41004286687045e-12</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32093,13 +32095,13 @@
         <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>285.8867128925975</v>
+        <v>322.8964653704897</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.6544928674244</v>
@@ -32224,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,25 +32314,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>285.8867128925984</v>
+        <v>431.3680753731345</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,7 +32341,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,31 +32554,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>409.0029787211712</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,40 +32700,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
         <v>125.3175546292901</v>
@@ -32740,7 +32742,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32789,31 +32791,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209185</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>282.8216163968492</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
@@ -32856,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796262</v>
@@ -32880,7 +32882,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,40 +32937,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -32977,7 +32979,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33029,28 +33031,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209194</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868552</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796262</v>
@@ -33117,7 +33119,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,40 +33174,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33214,7 +33216,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33263,31 +33265,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491737</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
@@ -33330,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796262</v>
@@ -33354,7 +33356,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,40 +33411,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33453,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33500,31 +33502,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>302.9675447508041</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.2560498238272</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33593,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,40 +33648,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33688,7 +33690,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,22 +33739,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>333.9544784328816</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33761,7 +33763,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
@@ -33804,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796262</v>
@@ -33828,7 +33830,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175656</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,37 +33970,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>265.5442652399236</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>429.5828357723605</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34162,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34211,31 +34213,31 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N42" t="n">
-        <v>189.0011860882997</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>514.6953762540921</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34302,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,40 +34359,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067219</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34399,7 +34401,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34448,31 +34450,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>339.9772972286967</v>
+        <v>379.4203056753693</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q45" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
@@ -34515,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796262</v>
@@ -34539,7 +34541,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875399</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35741,13 +35743,13 @@
         <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>151.9123054782673</v>
+        <v>188.9220579561594</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35808,7 +35810,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191385</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010452</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>151.9123054782682</v>
+        <v>297.3936679588043</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>477.985332142731</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>266.8689447991529</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,10 +36290,10 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.261899706049</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902405</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748309</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
         <v>264.332588409635</v>
@@ -36525,7 +36527,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060455</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902405</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648369</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
         <v>264.332588409635</v>
@@ -36762,7 +36764,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060455</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902405</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>73.18080466315214</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
         <v>264.332588409635</v>
@@ -36999,7 +37001,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
         <v>373.2618997060455</v>
@@ -37063,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>160.8335108287857</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.2742757378057</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37238,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902405</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648388</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>191.3582339884371</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
         <v>264.332588409635</v>
@@ -37473,7 +37475,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
         <v>373.2618997060455</v>
@@ -37482,7 +37484,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999048</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902929</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>134.2025531565903</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>295.6084283580303</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37710,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N42" t="n">
-        <v>57.65947400496642</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>372.0991318096477</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37947,7 +37949,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236315986</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902405</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>197.8432633066783</v>
+        <v>237.286271753351</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
         <v>264.332588409635</v>
@@ -38184,7 +38186,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060455</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1632819.270059493</v>
+        <v>1628806.6600455</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283172</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107.0120291964086</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>107.0120291964081</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>51.57870353610205</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>78.44407739678182</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>271.8722534420415</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>295.6573966413691</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>90.43240609179597</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>47.41254713315928</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>216.1997909845832</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1192,13 +1192,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>57.29212650174304</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>77.31354443380458</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>73.11246331531268</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.240968717414</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>143.6328115793017</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722639</v>
+        <v>381.930370072263</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>135.3135037226598</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>8.616048582070279</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176204</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>245.8640357413624</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428251</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>182.4326803923963</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>14.75529838241519</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>170.9457618790575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>114.2935157990527</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>134.5665975534142</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>212.4076860934765</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174149</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883565</v>
       </c>
       <c r="X37" t="n">
-        <v>119.6383426943795</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>20.13408744447803</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>136.7593194687121</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>216.4795114578124</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>98.20549876776242</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.16086499484859</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>54.32649042089751</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
         <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1698.50962791956</v>
+        <v>1590.416669135309</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>646.6939999491682</v>
+        <v>2130.778953914925</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>1961.842770987018</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>1811.726131574682</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>1663.813037992289</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1516.923090494379</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>2822.322864763051</v>
       </c>
       <c r="U4" t="n">
-        <v>1566.541764857916</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="V4" t="n">
-        <v>1566.541764857916</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="W4" t="n">
-        <v>1277.124594820955</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="X4" t="n">
-        <v>1049.135043922938</v>
+        <v>2533.219997888695</v>
       </c>
       <c r="Y4" t="n">
-        <v>828.3424647794079</v>
+        <v>2312.427418745165</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.035106955553</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939509</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2641.774278995486</v>
+        <v>2332.07795407525</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.634947019675</v>
+        <v>1941.938622099438</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>531.7821255545683</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8459426266614</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143257</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143257</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
         <v>212.7293032143257</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1746.118226106833</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1524.351610676359</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="U7" t="n">
-        <v>1235.248743802003</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="V7" t="n">
-        <v>980.5642555961158</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W7" t="n">
-        <v>980.5642555961158</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>752.5747046980985</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>531.7821255545683</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1808.800296392464</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1808.800296392464</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1450.534597785713</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2697.936093944079</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.800296392464</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>646.6939999491682</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>477.7578170212613</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1350.160618196603</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1095.476129990716</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1095.476129990716</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>867.4865790926983</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>646.6939999491682</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1182.055381897054</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,19 +5272,19 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,37 +5293,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797193</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637309</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890283</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.11872044489</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138493</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C16" t="n">
-        <v>916.2946447138493</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5442,46 +5442,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797817</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910817</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.08939327981</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853369</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580269</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832671</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487575</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510516</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854714</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648827</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611867</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138493</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138493</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="17">
@@ -5509,43 +5509,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
@@ -5606,16 +5606,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2222.001901828446</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5731,73 +5731,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>385.6451336181095</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,52 +5977,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468473</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400721</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121652</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>916.294644713842</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703119</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6223,31 +6223,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398594</v>
@@ -6256,19 +6256,19 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913447</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2381.235169913447</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>2817.800993781635</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>3445.398957336242</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>3997.308687575529</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2962.420792735044</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2793.484609807138</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2793.484609807138</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2793.484609807138</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309227</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024107</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4426.028272505481</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4136.953045849679</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3882.268557643793</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3592.851387606832</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3364.861836708814</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3144.069257565284</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,25 +6545,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021787</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756786</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996073</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.972636491141</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2804.65264778894</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>2635.716464861033</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>2485.599825448698</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>2337.686731866304</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>4268.260127559377</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>3979.184900903575</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>3724.500412697688</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>3435.083242660728</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X31" t="n">
-        <v>3207.09369176271</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>2986.30111261918</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2804.652647788942</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C34" t="n">
-        <v>2635.716464861035</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>2485.599825448699</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866306</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866306</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866306</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866306</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4487.861592536437</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4268.260127559379</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3979.184900903577</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3724.50041269769</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3435.083242660729</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3207.093691762712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="Y34" t="n">
-        <v>2986.301112619182</v>
+        <v>929.7309773356195</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,55 +6925,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.6905094135296</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580268</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235172</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258113</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602311</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396424</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359463</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X37" t="n">
-        <v>1090.48308855706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y37" t="n">
-        <v>869.6905094135296</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468473</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311999</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>632.755700703293</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>632.755700703293</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8426071208999</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>337.9526596229895</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258107</v>
+        <v>2125.967522499092</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602305</v>
+        <v>1836.89229584329</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396418</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359457</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614396</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614396</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7408,34 +7408,34 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492579</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061504</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.043492616111</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>702.4944101284095</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C43" t="n">
-        <v>533.5582272005026</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D43" t="n">
-        <v>383.4415877881669</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258107</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602305</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396418</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359457</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614396</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y43" t="n">
-        <v>884.1428749586493</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192474</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7663,34 +7663,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>762.5477693179095</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>593.6115863900026</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>443.4949469776668</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>295.5818533952737</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>148.6919058973633</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>148.6919058973633</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614396</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179095</v>
+        <v>1144.284195611858</v>
       </c>
     </row>
   </sheetData>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>82.07684380973544</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>13.30196929555251</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>208.789401745218</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>191.2691783702298</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>40.32043864788176</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409392984</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>69.70496293143168</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>202.6501519448731</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="29">
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>46.45968844823076</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>172.2294825375383</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>46.45968844823037</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>46.45968844823454</v>
       </c>
       <c r="X37" t="n">
-        <v>106.0713126946577</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>145.3900508477908</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>80.64613085857621</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.925938869475857</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.3791545843324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>134.6711151870887</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>85.96822242532636</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>899450.194994241</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>899450.1949942408</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>899450.194994241</v>
+        <v>899450.1949942406</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="F2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="G2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="H2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="I2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="F2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985042</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>5.548981789615936e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>91573.95495316942</v>
+      </c>
+      <c r="C4" t="n">
         <v>91573.95495316939</v>
       </c>
-      <c r="C4" t="n">
-        <v>91573.95495316938</v>
-      </c>
       <c r="D4" t="n">
-        <v>91573.95495316946</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26438,7 +26438,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26481,16 +26481,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26499,19 +26499,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-994575.4908303709</v>
       </c>
       <c r="C6" t="n">
-        <v>334169.2548972216</v>
+        <v>334169.2548972215</v>
       </c>
       <c r="D6" t="n">
         <v>334169.2548972216</v>
       </c>
       <c r="E6" t="n">
-        <v>85723.3779854235</v>
+        <v>85375.99873106625</v>
       </c>
       <c r="F6" t="n">
-        <v>411135.8397927782</v>
+        <v>410788.4605384216</v>
       </c>
       <c r="G6" t="n">
-        <v>411135.8397927789</v>
+        <v>410788.460538422</v>
       </c>
       <c r="H6" t="n">
-        <v>411135.8397927787</v>
+        <v>410788.4605384215</v>
       </c>
       <c r="I6" t="n">
-        <v>411135.8397927787</v>
+        <v>410788.4605384217</v>
       </c>
       <c r="J6" t="n">
-        <v>193604.6373955015</v>
+        <v>193257.2581411444</v>
       </c>
       <c r="K6" t="n">
-        <v>411135.8397927787</v>
+        <v>410788.4605384218</v>
       </c>
       <c r="L6" t="n">
-        <v>411135.8397927787</v>
+        <v>410788.4605384218</v>
       </c>
       <c r="M6" t="n">
-        <v>326080.8118572669</v>
+        <v>325733.4326029099</v>
       </c>
       <c r="N6" t="n">
-        <v>411135.8397927786</v>
+        <v>410788.4605384218</v>
       </c>
       <c r="O6" t="n">
-        <v>411135.8397927787</v>
+        <v>410788.4605384218</v>
       </c>
       <c r="P6" t="n">
-        <v>411135.8397927786</v>
+        <v>410788.4605384218</v>
       </c>
     </row>
   </sheetData>
@@ -26789,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26831,7 +26831,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>275.721812467072</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>279.2259094596454</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>114.4471047229262</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>207.767760808831</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>93.40063832896601</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>74.07370403709996</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>99.33661923964593</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>172.1364021430099</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>165.7305790876786</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>270.4601319683919</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276459</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>213.0993748903002</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.656846076092861e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>6.97563488453549e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.76821117737509e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28997,7 +28997,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>3.393552105990239e-12</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -30042,13 +30042,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-1.244302867549568e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30182,13 +30182,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.41004286687045e-12</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>431.3680753731345</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>409.0029787211712</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>282.8216163968492</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868552</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491737</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>302.9675447508041</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>333.9544784328816</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175656</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>265.5442652399236</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>514.6953762540921</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067219</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>379.4203056753693</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>103.6778299969399</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191385</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>297.3936679588043</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>266.8689447991529</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.261899706049</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>140.6875824748309</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648369</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315214</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>160.8335108287857</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>191.3582339884371</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060417</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572999048</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902929</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>134.2025531565903</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>372.0991318096477</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315986</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>237.286271753351</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1628806.6600455</v>
+        <v>1630567.190348285</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>79.76470074482921</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>107.0120291964081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>51.57870353610205</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>13.42874471570741</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -955,13 +955,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>196.1623266599253</v>
       </c>
       <c r="X5" t="n">
-        <v>295.6573966413691</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>47.41254713315928</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>66.12438285013739</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>57.29212650174304</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380458</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>192.1675620474797</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>143.6328115793017</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>8.616048582070279</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>26.1362719570585</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>40.96105405076429</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>182.4326803923963</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272922</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>254.0326278306778</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>114.2935157990527</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>35.55160172423379</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>212.4076860934765</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>27.31547498186427</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>240.0633098883565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>136.7593194687121</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>216.4795114578124</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45.16086499484859</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.416669135309</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4375,7 +4375,7 @@
         <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1590.416669135309</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686082</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064538</v>
+        <v>846.0716871064756</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080136</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.741664998631</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2130.778953914925</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>1961.842770987018</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>1811.726131574682</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>1663.813037992289</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1516.923090494379</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.823389952862</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.823389952862</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366699</v>
+        <v>1913.730159486768</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193525</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.322864763051</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="U4" t="n">
-        <v>2533.219997888695</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="V4" t="n">
-        <v>2533.219997888695</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="W4" t="n">
-        <v>2533.219997888695</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>2533.219997888695</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>2312.427418745165</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1555.338782035317</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.376265094905</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881545</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4603,16 +4603,16 @@
         <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="X5" t="n">
-        <v>2332.07795407525</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="Y5" t="n">
-        <v>1941.938622099438</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="6">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1879.403086337827</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U7" t="n">
-        <v>1879.403086337827</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>1624.71859813194</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1252.833343223196</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>883.8708262827847</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>883.8708262827847</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>883.8708262827847</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>472.8849214931772</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4819,13 +4819,13 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.936093944079</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2345.167438673965</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.167438673965</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>1639.433183287318</v>
       </c>
     </row>
     <row r="9">
@@ -4877,16 +4877,16 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4895,10 +4895,10 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,55 +5029,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
@@ -5132,7 +5132,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1182.055381897054</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>961.2628027535235</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,10 +5512,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1057.955258982919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>889.0190760550122</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>738.9024366426764</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>590.9893430602833</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>444.0993955623729</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>276.9032962772529</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>135.191465119451</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1460.396302956689</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1239.603723813159</v>
       </c>
     </row>
     <row r="23">
@@ -5983,13 +5983,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,25 +6004,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1720.862466540123</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1466.177978334236</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1176.760808297275</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>948.7712573992578</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>727.9786782557277</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,13 +6484,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6900,10 +6900,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>929.7309773356195</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6964,10 +6964,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>560.7825789706076</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C37" t="n">
-        <v>391.8463960427007</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D37" t="n">
-        <v>241.729756630365</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E37" t="n">
-        <v>93.81666304797186</v>
+        <v>517.5808020536587</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>370.6908545557483</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>203.4947552706282</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
@@ -7110,37 +7110,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832659</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487564</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510505</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854702</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648815</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1191.213173842395</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>963.2236229443774</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>742.4310438008473</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2125.967522499092</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7435,25 +7435,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832229</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.396372297858</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.711884091971</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134626</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7848,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.07684380973544</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>208.789401745218</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>191.2691783702298</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>40.30478226780124</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>69.70496293143168</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>32.15184655856635</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>172.2294825375383</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>190.1580536648034</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>13.30196929556064</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>112.9792378643596</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>46.45968844823454</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>80.64613085857621</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.925938869475857</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>134.6711151870887</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>899450.1949942406</v>
+        <v>899450.1949942409</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>899450.1949942409</v>
+        <v>899450.1949942408</v>
       </c>
     </row>
     <row r="16">
@@ -26322,7 +26322,7 @@
         <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
@@ -26331,16 +26331,16 @@
         <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="J2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
@@ -26352,7 +26352,7 @@
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26438,7 +26438,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
@@ -26527,43 +26527,43 @@
         <v>334169.2548972215</v>
       </c>
       <c r="D6" t="n">
-        <v>334169.2548972216</v>
+        <v>334169.2548972218</v>
       </c>
       <c r="E6" t="n">
-        <v>85375.99873106625</v>
+        <v>85688.64005998777</v>
       </c>
       <c r="F6" t="n">
-        <v>410788.4605384216</v>
+        <v>411101.1018673429</v>
       </c>
       <c r="G6" t="n">
-        <v>410788.460538422</v>
+        <v>411101.1018673429</v>
       </c>
       <c r="H6" t="n">
-        <v>410788.4605384215</v>
+        <v>411101.1018673429</v>
       </c>
       <c r="I6" t="n">
-        <v>410788.4605384217</v>
+        <v>411101.101867343</v>
       </c>
       <c r="J6" t="n">
-        <v>193257.2581411444</v>
+        <v>193569.8994700655</v>
       </c>
       <c r="K6" t="n">
-        <v>410788.4605384218</v>
+        <v>411101.1018673429</v>
       </c>
       <c r="L6" t="n">
-        <v>410788.4605384218</v>
+        <v>411101.101867343</v>
       </c>
       <c r="M6" t="n">
-        <v>325733.4326029099</v>
+        <v>326046.0739318312</v>
       </c>
       <c r="N6" t="n">
-        <v>410788.4605384218</v>
+        <v>411101.101867343</v>
       </c>
       <c r="O6" t="n">
-        <v>410788.4605384218</v>
+        <v>411101.1018673429</v>
       </c>
       <c r="P6" t="n">
-        <v>410788.4605384218</v>
+        <v>411101.101867343</v>
       </c>
     </row>
   </sheetData>
@@ -26795,13 +26795,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>274.9183408758537</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>279.2259094596454</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>114.4471047229262</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>75.50340795433992</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>153.0786420574877</v>
       </c>
       <c r="X5" t="n">
-        <v>74.07370403709996</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27827,7 +27827,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>172.1364021430099</v>
+        <v>27.38138722868902</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>344.797342803316</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>270.4601319683919</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276459</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,13 +28067,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>94.04427615813316</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29486,7 +29486,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>-2.478715391494445e-12</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30182,7 +30182,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33198,7 +33198,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37478,7 +37478,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060417</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
